--- a/hasil/2023_01_lipa_2.xlsx
+++ b/hasil/2023_01_lipa_2.xlsx
@@ -10,14 +10,14 @@
     <sheet name="LI-PA2" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'LI-PA2'!$A$1:$L$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'LI-PA2'!$A$1:$L$109</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>LAPORAN PERKARA YANG DIMOHONKAN BANDING</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Penyampaian Fotocopy Relas PBT Ke PTA</t>
   </si>
   <si>
-    <t>561/Pdt.G/2022/PA.Tte</t>
+    <t>630/Pdt.G/2022/PA.Tte</t>
   </si>
   <si>
     <t>Ismail Warnangan
@@ -78,69 +78,53 @@
 Miradiana</t>
   </si>
   <si>
-    <t>10/11/2022</t>
-  </si>
-  <si>
-    <t>22/11/2022</t>
-  </si>
-  <si>
-    <t>15/12/2022
-15/12/2022</t>
-  </si>
-  <si>
-    <t>22/12/2022</t>
+    <t>14/11/2022</t>
+  </si>
+  <si>
+    <t>25/11/2022</t>
+  </si>
+  <si>
+    <t>19/12/2022
+19/12/2022</t>
+  </si>
+  <si>
+    <t>23/12/2022</t>
+  </si>
+  <si>
+    <t>17/01/2023</t>
+  </si>
+  <si>
+    <t>23/01/2023</t>
+  </si>
+  <si>
+    <t>30/01/2023
+30/01/2023</t>
+  </si>
+  <si>
+    <t>649/Pdt.G/2022/PA.Tte</t>
+  </si>
+  <si>
+    <t>14/12/2022</t>
+  </si>
+  <si>
+    <t>20/12/2022</t>
+  </si>
+  <si>
+    <t>13/01/2023
+13/01/2023</t>
+  </si>
+  <si>
+    <t>19/01/2023</t>
+  </si>
+  <si>
+    <t>16/02/2023</t>
+  </si>
+  <si>
+    <t>28/02/2023</t>
   </si>
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>630/Pdt.G/2022/PA.Tte</t>
-  </si>
-  <si>
-    <t>14/11/2022</t>
-  </si>
-  <si>
-    <t>25/11/2022</t>
-  </si>
-  <si>
-    <t>19/12/2022
-19/12/2022</t>
-  </si>
-  <si>
-    <t>23/12/2022</t>
-  </si>
-  <si>
-    <t>17/01/2023</t>
-  </si>
-  <si>
-    <t>23/01/2023</t>
-  </si>
-  <si>
-    <t>30/01/2023
-30/01/2023</t>
-  </si>
-  <si>
-    <t>649/Pdt.G/2022/PA.Tte</t>
-  </si>
-  <si>
-    <t>14/12/2022</t>
-  </si>
-  <si>
-    <t>20/12/2022</t>
-  </si>
-  <si>
-    <t>13/01/2023
-13/01/2023</t>
-  </si>
-  <si>
-    <t>19/01/2023</t>
-  </si>
-  <si>
-    <t>16/02/2023</t>
-  </si>
-  <si>
-    <t>28/02/2023</t>
   </si>
   <si>
     <t>688/Pdt.G/2022/PA.Tte</t>
@@ -167,13 +151,13 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 09 Maret 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ketua Pengadilan Agama Ternate </t>
-  </si>
-  <si>
-    <t>Panitera</t>
+    <t>Ternate , 10 Maret 2023</t>
+  </si>
+  <si>
+    <t>Ketua Pengadilan Agama Ternate ,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panitera, </t>
   </si>
   <si>
     <t>Drs. Djabir Sasole, M.H</t>
@@ -222,6 +206,15 @@
       <name val="Arial Narrow"/>
     </font>
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+    </font>
+    <font>
       <b val="1"/>
       <i val="1"/>
       <strike val="0"/>
@@ -231,25 +224,16 @@
       <name val="Arial Narrow"/>
     </font>
     <font>
-      <b val="0"/>
+      <b val="1"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial Narrow"/>
     </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,12 +249,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -315,6 +293,20 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
     </border>
     <border>
       <left style="thin">
@@ -327,25 +319,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -354,119 +332,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="15" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
@@ -474,56 +364,36 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="5" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="4" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="2" borderId="5" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="49" fillId="4" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -825,615 +695,1694 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="60" view="pageBreakPreview" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="13.2" defaultColWidth="8.88671875" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="13.2" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5.109375" customWidth="true" style="1"/>
     <col min="2" max="2" width="20.88671875" customWidth="true" style="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="true" style="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="true" style="1"/>
     <col min="4" max="4" width="11.5546875" customWidth="true" style="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="true" style="1"/>
-    <col min="6" max="6" width="14.5546875" customWidth="true" style="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="true" style="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="true" style="1"/>
-    <col min="9" max="9" width="13.6640625" customWidth="true" style="1"/>
-    <col min="10" max="10" width="16" customWidth="true" style="1"/>
-    <col min="11" max="11" width="15.33203125" customWidth="true" style="1"/>
+    <col min="5" max="5" width="12.21875" customWidth="true" style="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="true" style="1"/>
+    <col min="7" max="7" width="11.77734375" customWidth="true" style="1"/>
+    <col min="8" max="8" width="12" customWidth="true" style="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="true" style="1"/>
+    <col min="10" max="10" width="13.88671875" customWidth="true" style="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="true" style="1"/>
     <col min="12" max="12" width="8.5546875" customWidth="true" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:16" customHeight="1" ht="15.6">
-      <c r="L4" s="2" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="32" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:16" customHeight="1" ht="31.2">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="28" t="s">
+      <c r="G6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="28" t="s">
+      <c r="J6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="28" t="s">
+      <c r="K6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="33"/>
-    </row>
-    <row r="7" spans="1:16" customHeight="1" ht="16.2">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="34"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:16" customHeight="1" ht="28.8">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:16" customHeight="1" ht="16.2">
-      <c r="A8" s="4">
+      <c r="A8" s="8">
         <v>1</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="8">
         <v>2</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="8">
         <v>3</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <v>5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="8">
         <v>6</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="8">
         <v>7</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="8">
         <v>8</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="8">
         <v>9</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="8">
         <v>10</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="8">
         <v>11</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:16" customHeight="1" ht="46">
-      <c r="A9" s="35">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="37"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35" t="s">
+      <c r="H9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
+      <c r="I9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
     </row>
     <row r="10" spans="1:16" customHeight="1" ht="46">
-      <c r="A10" s="36">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="36" t="s">
+      <c r="B10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="36" t="s">
+      <c r="D10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="E10" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="F10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="36" t="s">
+      <c r="G10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="J10" s="36" t="s">
+      <c r="H10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
+      <c r="I10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
     </row>
     <row r="11" spans="1:16" customHeight="1" ht="46">
-      <c r="A11" s="35">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="36" t="s">
+      <c r="B11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-    </row>
-    <row r="12" spans="1:16" customHeight="1" ht="46">
-      <c r="A12" s="35">
-        <v>4</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="36" t="s">
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+    </row>
+    <row r="12" spans="1:16" customHeight="1" ht="15">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+    </row>
+    <row r="13" spans="1:16" customHeight="1" ht="15">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+    </row>
+    <row r="14" spans="1:16" customHeight="1" ht="20">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" customHeight="1" ht="20">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="36" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+    </row>
+    <row r="16" spans="1:16" customHeight="1" ht="15">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+    </row>
+    <row r="17" spans="1:16" customHeight="1" ht="15">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" customHeight="1" ht="15">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+    </row>
+    <row r="19" spans="1:16" customHeight="1" ht="15">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+    </row>
+    <row r="20" spans="1:16" customHeight="1" ht="20">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-    </row>
-    <row r="13" spans="1:16" customHeight="1" ht="18">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:16" customHeight="1" ht="15.75">
-      <c r="A14" s="7"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:16" customHeight="1" ht="20">
-      <c r="A15" s="7"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="41" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="43" t="s">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" customHeight="1" ht="20">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="1:16" customHeight="1" ht="20">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="42" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="J16" s="12"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:16" customHeight="1" ht="18">
-      <c r="A17" s="13"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A18" s="7"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A19" s="7"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="1:16" customHeight="1" ht="16.5">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-    </row>
-    <row r="21" spans="1:16" customHeight="1" ht="20">
-      <c r="A21" s="17"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:16" customHeight="1" ht="20">
-      <c r="A22" s="17"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="J22" s="3"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A23" s="17"/>
-      <c r="B23" s="21"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" customHeight="1" ht="19.95">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:16" customHeight="1" ht="19.95">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A24" s="17"/>
-      <c r="B24" s="22"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A26" s="17"/>
-      <c r="B26" s="22"/>
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A27" s="17"/>
-      <c r="B27" s="22"/>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A28" s="17"/>
-      <c r="B28" s="25"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:16" customHeight="1" ht="19.95">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-    </row>
-    <row r="29" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A29" s="17"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="1:16" customHeight="1" ht="13.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:16" customHeight="1" ht="13.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:16" customHeight="1" ht="13.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:16" customHeight="1" ht="19.95">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+    </row>
+    <row r="40" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+    </row>
+    <row r="41" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+    </row>
+    <row r="42" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+    </row>
+    <row r="43" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+    </row>
+    <row r="44" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+    </row>
+    <row r="45" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+    </row>
+    <row r="46" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+    </row>
+    <row r="47" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+    </row>
+    <row r="48" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+    </row>
+    <row r="49" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+    </row>
+    <row r="50" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+    </row>
+    <row r="51" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+    </row>
+    <row r="52" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+    </row>
+    <row r="53" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+    </row>
+    <row r="54" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+    </row>
+    <row r="55" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+    </row>
+    <row r="56" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+    </row>
+    <row r="57" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+    </row>
+    <row r="58" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+    </row>
+    <row r="59" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+    </row>
+    <row r="60" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+    </row>
+    <row r="61" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+    </row>
+    <row r="62" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+    </row>
+    <row r="63" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A67" s="5"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+    </row>
+    <row r="79" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+    </row>
+    <row r="82" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+    </row>
+    <row r="83" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A83" s="5"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+    </row>
+    <row r="84" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+    </row>
+    <row r="85" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A85" s="5"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+    </row>
+    <row r="86" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+    </row>
+    <row r="87" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A87" s="5"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+    </row>
+    <row r="88" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+    </row>
+    <row r="89" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+    </row>
+    <row r="90" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A90" s="5"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+    </row>
+    <row r="91" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+    </row>
+    <row r="92" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+    </row>
+    <row r="93" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+    </row>
+    <row r="94" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A94" s="5"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+    </row>
+    <row r="95" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+    </row>
+    <row r="96" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+    </row>
+    <row r="97" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+    </row>
+    <row r="98" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+    </row>
+    <row r="99" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+    </row>
+    <row r="100" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+    </row>
+    <row r="101" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A101" s="5"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+    </row>
+    <row r="102" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+    </row>
+    <row r="103" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+    </row>
+    <row r="104" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+    </row>
+    <row r="105" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A105" s="5"/>
+      <c r="B105" s="5"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A106" s="5"/>
+      <c r="B106" s="5"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+    </row>
+    <row r="107" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A107" s="5"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+    </row>
+    <row r="108" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="5"/>
+      <c r="L108" s="5"/>
+    </row>
+    <row r="109" spans="1:16" customHeight="1" ht="15.6">
+      <c r="A109" s="5"/>
+      <c r="B109" s="5"/>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
@@ -1444,12 +2393,6 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L5:L7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="1.46" right="0.19685039370079" top="0.43307086614173" bottom="0.43307086614173" header="0.31496062992126" footer="0.31496062992126"/>

--- a/hasil/2023_01_lipa_2.xlsx
+++ b/hasil/2023_01_lipa_2.xlsx
@@ -293,10 +293,15 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -307,15 +312,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-    </border>
-    <border>
-      <left style="thin">
+      <top style="thin">
         <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="double">
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -360,16 +360,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
@@ -380,20 +392,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -718,52 +718,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
     </row>
     <row r="2" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
     </row>
     <row r="3" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
     </row>
     <row r="4" spans="1:16" customHeight="1" ht="15.6">
       <c r="A4" s="3"/>
@@ -782,13 +782,13 @@
       </c>
     </row>
     <row r="5" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -801,52 +801,52 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:16" customHeight="1" ht="31.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="13"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="1:16" customHeight="1" ht="28.8">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="16"/>
     </row>
     <row r="8" spans="1:16" customHeight="1" ht="16.2">
@@ -2377,12 +2377,6 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
@@ -2393,10 +2387,16 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L5:L7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="1.46" right="0.19685039370079" top="0.43307086614173" bottom="0.43307086614173" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="5" orientation="landscape" scale="95" fitToHeight="1" fitToWidth="1"/>
+  <pageMargins left="0.62992125984252" right="0.43307086614173" top="0.43307086614173" bottom="0.43307086614173" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="272" orientation="landscape" scale="95" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/hasil/2023_01_lipa_2.xlsx
+++ b/hasil/2023_01_lipa_2.xlsx
@@ -151,7 +151,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 10 Maret 2023</t>
+    <t>Ternate , 13 Maret 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
@@ -360,22 +360,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
@@ -388,12 +372,28 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
+    <xf xfId="0" fontId="5" numFmtId="0" fillId="4" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+      <protection hidden="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
       <protection hidden="false"/>
     </xf>
   </cellXfs>
@@ -718,52 +718,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
     </row>
     <row r="4" spans="1:16" customHeight="1" ht="15.6">
       <c r="A4" s="3"/>
@@ -782,72 +782,72 @@
       </c>
     </row>
     <row r="5" spans="1:16" customHeight="1" ht="15.6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="14" t="s">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:16" customHeight="1" ht="31.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="15"/>
+      <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:16" customHeight="1" ht="28.8">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="16"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:16" customHeight="1" ht="16.2">
       <c r="A8" s="8">
@@ -2377,6 +2377,12 @@
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="D5:K5"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:L3"/>
@@ -2387,16 +2393,10 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="L5:L7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="D5:K5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.62992125984252" right="0.43307086614173" top="0.43307086614173" bottom="0.43307086614173" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="272" orientation="landscape" scale="95" fitToHeight="1" fitToWidth="1"/>
+  <pageMargins left="0.59055118110236" right="0.43307086614173" top="0.43307086614173" bottom="0.43307086614173" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="14" orientation="landscape" scale="93" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/hasil/2023_01_lipa_2.xlsx
+++ b/hasil/2023_01_lipa_2.xlsx
@@ -151,7 +151,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 13 Maret 2023</t>
+    <t>Ternate , 14 Maret 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_2.xlsx
+++ b/hasil/2023_01_lipa_2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>LAPORAN PERKARA YANG DIMOHONKAN BANDING</t>
   </si>
@@ -123,8 +123,8 @@
     <t>28/02/2023</t>
   </si>
   <si>
-    <t xml:space="preserve">
-</t>
+    <t>01/03/2023
+01/03/2023</t>
   </si>
   <si>
     <t>688/Pdt.G/2022/PA.Tte</t>
@@ -148,10 +148,20 @@
     <t>03/02/2023</t>
   </si>
   <si>
+    <t>08/03/2023</t>
+  </si>
+  <si>
+    <t>13/03/2023</t>
+  </si>
+  <si>
+    <t>13/03/2023
+13/03/2023</t>
+  </si>
+  <si>
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 14 Maret 2023</t>
+    <t>Ternate , 30 Mei 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
@@ -977,10 +987,14 @@
       <c r="G11" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
+      <c r="H11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>41</v>
+      </c>
       <c r="J11" s="17" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="17"/>
@@ -1017,7 +1031,7 @@
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1025,7 +1039,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="5"/>
@@ -1035,7 +1049,7 @@
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1043,7 +1057,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="5"/>
@@ -1110,7 +1124,7 @@
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
@@ -1118,7 +1132,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1128,7 +1142,7 @@
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
@@ -1136,7 +1150,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>

--- a/hasil/2023_01_lipa_2.xlsx
+++ b/hasil/2023_01_lipa_2.xlsx
@@ -161,7 +161,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 30 Mei 2023</t>
+    <t>Ternate , 17 Juli 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
@@ -711,20 +711,20 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="13.2" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr customHeight="true" defaultRowHeight="13.15" defaultColWidth="8.85546875" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.109375" customWidth="true" style="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="true" style="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="true" style="1"/>
-    <col min="4" max="4" width="11.5546875" customWidth="true" style="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="true" style="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="true" style="1"/>
-    <col min="7" max="7" width="11.77734375" customWidth="true" style="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="true" style="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="true" style="1"/>
+    <col min="3" max="3" width="29.85546875" customWidth="true" style="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="true" style="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="true" style="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="true" style="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="true" style="1"/>
     <col min="8" max="8" width="12" customWidth="true" style="1"/>
-    <col min="9" max="9" width="11.6640625" customWidth="true" style="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="true" style="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="true" style="1"/>
-    <col min="12" max="12" width="8.5546875" customWidth="true" style="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="true" style="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="true" style="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="true" style="1"/>
+    <col min="12" max="12" width="8.5703125" customWidth="true" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" customHeight="1" ht="15.6">
@@ -815,7 +815,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" customHeight="1" ht="31.2">
+    <row r="6" spans="1:16" customHeight="1" ht="31.15">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="12"/>
@@ -845,7 +845,7 @@
       </c>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:16" customHeight="1" ht="28.8">
+    <row r="7" spans="1:16" customHeight="1" ht="28.9">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="13"/>
@@ -859,7 +859,7 @@
       <c r="K7" s="13"/>
       <c r="L7" s="14"/>
     </row>
-    <row r="8" spans="1:16" customHeight="1" ht="16.2">
+    <row r="8" spans="1:16" customHeight="1" ht="16.15">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:16" customHeight="1" ht="19.95">
+    <row r="22" spans="1:16" customHeight="1" ht="19.9">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
@@ -1170,7 +1170,7 @@
       <c r="K22" s="7"/>
       <c r="L22" s="7"/>
     </row>
-    <row r="23" spans="1:16" customHeight="1" ht="19.95">
+    <row r="23" spans="1:16" customHeight="1" ht="19.9">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -1240,7 +1240,7 @@
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
     </row>
-    <row r="28" spans="1:16" customHeight="1" ht="19.95">
+    <row r="28" spans="1:16" customHeight="1" ht="19.9">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
@@ -1254,7 +1254,7 @@
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
     </row>
-    <row r="29" spans="1:16" customHeight="1" ht="19.95">
+    <row r="29" spans="1:16" customHeight="1" ht="19.9">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
@@ -2409,8 +2409,8 @@
     <mergeCell ref="L5:L7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.59055118110236" right="0.43307086614173" top="0.43307086614173" bottom="0.43307086614173" header="0.31496062992126" footer="0.31496062992126"/>
-  <pageSetup paperSize="14" orientation="landscape" scale="93" fitToHeight="1" fitToWidth="1"/>
+  <pageMargins left="0.98425196850394" right="0.39370078740157" top="0.31496062992126" bottom="0.23622047244094" header="0" footer="0"/>
+  <pageSetup paperSize="14" orientation="landscape" scale="79" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>

--- a/hasil/2023_01_lipa_2.xlsx
+++ b/hasil/2023_01_lipa_2.xlsx
@@ -161,7 +161,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 17 Juli 2023</t>
+    <t>Ternate , 02 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_2.xlsx
+++ b/hasil/2023_01_lipa_2.xlsx
@@ -161,7 +161,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 02 Agustus 2023</t>
+    <t>Ternate , 30 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_2.xlsx
+++ b/hasil/2023_01_lipa_2.xlsx
@@ -161,7 +161,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 30 Agustus 2023</t>
+    <t>Ternate , 31 Agustus 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_2.xlsx
+++ b/hasil/2023_01_lipa_2.xlsx
@@ -161,7 +161,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 31 Agustus 2023</t>
+    <t>Ternate , 04 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>

--- a/hasil/2023_01_lipa_2.xlsx
+++ b/hasil/2023_01_lipa_2.xlsx
@@ -161,7 +161,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 04 September 2023</t>
+    <t>Ternate , 05 September 2023</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
